--- a/ODOMETRIA.xlsx
+++ b/ODOMETRIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JRodriguez\Google Drive\master control\Robotica autonoma\tema2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD52AF-66F9-4FD4-BBDC-E87C16B05104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1BA78-3B80-434E-B606-F12E814CB584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2328" windowWidth="13824" windowHeight="7176" xr2:uid="{15D87AEF-06E5-4B2F-A9F6-216ED8E3FFC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15D87AEF-06E5-4B2F-A9F6-216ED8E3FFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="DirectExcelSolution" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>NR</t>
   </si>
@@ -114,12 +114,6 @@
     <t>VR</t>
   </si>
   <si>
-    <t>incremento angular rueda derecha</t>
-  </si>
-  <si>
-    <t>incremento angular rueda izquierda</t>
-  </si>
-  <si>
     <t>VrotR</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Distancia desplazamiento instantanea</t>
   </si>
   <si>
-    <t>angulo giro instantaneo</t>
-  </si>
-  <si>
     <t>O0</t>
   </si>
   <si>
@@ -159,13 +150,28 @@
     <t>Y inicial</t>
   </si>
   <si>
-    <t>Oritentación inicial</t>
-  </si>
-  <si>
     <t>X actual</t>
   </si>
   <si>
     <t>Y actual</t>
+  </si>
+  <si>
+    <t>Incremento angular rueda derecha</t>
+  </si>
+  <si>
+    <t>Incremento angular rueda izquierda</t>
+  </si>
+  <si>
+    <t>Angulo giro instantaneo</t>
+  </si>
+  <si>
+    <t>Orientación inicial</t>
+  </si>
+  <si>
+    <t>Odometría 2d a través de Post procesado de señales provenientes de los enconder incrementales de las ruedas de un robot diferencial de dos ruedas.</t>
+  </si>
+  <si>
+    <t>Autor: Jonatan Rodriguez   jonataro@ucm.es</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +193,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -599,29 +613,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -642,6 +638,27 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +735,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$K$24:$K$38</c:f>
+              <c:f>DirectExcelSolution!$K$26:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -772,7 +789,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$L$24:$L$38</c:f>
+              <c:f>DirectExcelSolution!$L$26:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1081,7 +1098,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$B$23:$B$38</c:f>
+              <c:f>DirectExcelSolution!$B$25:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1138,7 +1155,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$Q$23:$Q$38</c:f>
+              <c:f>DirectExcelSolution!$Q$25:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1232,7 +1249,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$B$23:$B$38</c:f>
+              <c:f>DirectExcelSolution!$B$25:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1289,7 +1306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$R$23:$R$38</c:f>
+              <c:f>DirectExcelSolution!$R$25:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1383,7 +1400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$B$23:$B$38</c:f>
+              <c:f>DirectExcelSolution!$B$25:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1440,7 +1457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DirectExcelSolution!$S$23:$S$38</c:f>
+              <c:f>DirectExcelSolution!$S$25:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2989,13 +3006,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3025,13 +3042,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>106937</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>165498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3357,15 +3374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70581E46-E1FA-488E-A2EC-8A71F8496ABA}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S38" sqref="B21:S38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" customWidth="1"/>
@@ -3376,7 +3393,7 @@
     <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" customWidth="1"/>
     <col min="14" max="14" width="6.88671875" customWidth="1"/>
     <col min="15" max="16" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -3386,498 +3403,360 @@
     <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <f>6/PI()</f>
         <v>1.909859317102744</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <f>3/PI()</f>
         <v>0.95492965855137202</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
       <c r="N6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
+      <c r="C20" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="31" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="26" t="s">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="30" t="s">
+      <c r="G24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="30" t="s">
+      <c r="M24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="Q24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="30" t="s">
+      <c r="R24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S24" s="28" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <f>M5</f>
-        <v>3</v>
-      </c>
-      <c r="L23" s="12">
-        <f>M6</f>
-        <v>5</v>
-      </c>
-      <c r="M23" s="11">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <f>M23*360/(2*PI())</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17">
-        <v>5</v>
-      </c>
-      <c r="E24" s="22">
-        <f>2*PI()*$M$4*C24/$M$2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" ref="F24:F38" si="0">2*PI()*$M$4*D24/$M$2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="G24" s="5">
-        <f>E24/($B24-$B23)</f>
-        <v>9.375</v>
-      </c>
-      <c r="H24" s="6">
-        <f>F24/($B24-$B23)</f>
-        <v>9.375</v>
-      </c>
-      <c r="I24" s="14">
-        <f>(E24+F24)/2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="J24" s="14">
-        <f>(E24-F24)/$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <f>K23+I24*COS(M24)</f>
-        <v>3.9375</v>
-      </c>
-      <c r="L24" s="15">
-        <f>L23+I24*SIN(M24)</f>
-        <v>5</v>
-      </c>
-      <c r="M24" s="14">
-        <f>M23+J24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
-        <f>M24*360/(2*PI())</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <f>K24-K23</f>
-        <v>0.9375</v>
-      </c>
-      <c r="P24" s="14">
-        <f>L24-L23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <f>((C24-C23)/$M$2*2*PI()*$M$4)/(B24-B23)</f>
-        <v>9.375</v>
-      </c>
-      <c r="R24" s="6">
-        <f>((D24-D23)/$M$2*2*PI()*$M$4)/(B24-B23)</f>
-        <v>9.375</v>
-      </c>
-      <c r="S24" s="36">
-        <f>I24/(B24-B23)</f>
-        <v>9.375</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <f>M7</f>
         <v>3</v>
       </c>
-      <c r="B25" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
-      </c>
-      <c r="D25" s="17">
-        <v>6</v>
-      </c>
-      <c r="E25" s="22">
-        <f t="shared" ref="E25:E38" si="1">2*PI()*$M$4*C25/$M$2</f>
-        <v>1.125</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" ref="G25:G38" si="2">E25/($B25-$B24)</f>
-        <v>11.25</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" ref="H25:H38" si="3">F25/($B25-$B24)</f>
-        <v>11.25</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" ref="I25:I38" si="4">(E25+F25)/2</f>
-        <v>1.125</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" ref="J25:J38" si="5">(E25-F25)/$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" ref="K25:K38" si="6">K24+I25*COS(M25)</f>
-        <v>5.0625</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" ref="L25:L38" si="7">L24+I25*SIN(M25)</f>
+      <c r="L25" s="12">
+        <f>M8</f>
         <v>5</v>
       </c>
-      <c r="M25" s="14">
-        <f t="shared" ref="M25:M38" si="8">M24+J25</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="15">
-        <f t="shared" ref="N25:N38" si="9">M25*360/(2*PI())</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
-        <f t="shared" ref="O25:O38" si="10">K25-K24</f>
-        <v>1.125</v>
-      </c>
-      <c r="P25" s="14">
-        <f t="shared" ref="P25:P38" si="11">L25-L24</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" ref="Q25:Q38" si="12">((C25-C24)/$M$2*2*PI()*$M$4)/(B25-B24)</f>
-        <v>1.875</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" ref="R25:R38" si="13">((D25-D24)/$M$2*2*PI()*$M$4)/(B25-B24)</f>
-        <v>1.875</v>
-      </c>
-      <c r="S25" s="36">
-        <f>I25/(B25-B24)</f>
-        <v>11.25</v>
+      <c r="M25" s="11">
+        <f>M9</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <f>M25*360/(2*PI())</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="16">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -3886,176 +3765,176 @@
         <v>5</v>
       </c>
       <c r="E26" s="22">
-        <f t="shared" si="1"/>
+        <f>2*PI()*$M$6*C26/$M$4</f>
         <v>0.9375</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F26:F40" si="0">2*PI()*$M$6*D26/$M$4</f>
         <v>0.9375</v>
       </c>
       <c r="G26" s="5">
         <f>E26/($B26-$B25)</f>
-        <v>9.3750000000000018</v>
+        <v>9.375</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>9.3750000000000018</v>
+        <f>F26/($B26-$B25)</f>
+        <v>9.375</v>
       </c>
       <c r="I26" s="14">
         <f>(E26+F26)/2</f>
         <v>0.9375</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="5"/>
+        <f>(E26-F26)/$M$5</f>
         <v>0</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>K25+I26*COS(M26)</f>
+        <v>3.9375</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="7"/>
+        <f>L25+I26*SIN(M26)</f>
         <v>5</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="8"/>
+        <f>M25+J26</f>
         <v>0</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="9"/>
+        <f>M26*360/(2*PI())</f>
         <v>0</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="10"/>
+        <f>K26-K25</f>
         <v>0.9375</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="11"/>
+        <f>L26-L25</f>
         <v>0</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="12"/>
-        <v>-1.8750000000000004</v>
+        <f>((C26-C25)/$M$4*2*PI()*$M$6)/(B26-B25)</f>
+        <v>9.375</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="13"/>
-        <v>-1.8750000000000004</v>
-      </c>
-      <c r="S26" s="36">
-        <f t="shared" ref="S26:S38" si="14">I26/(B26-B25)</f>
-        <v>9.3750000000000018</v>
+        <f>((D26-D25)/$M$4*2*PI()*$M$6)/(B26-B25)</f>
+        <v>9.375</v>
+      </c>
+      <c r="S26" s="30">
+        <f>I26/(B26-B25)</f>
+        <v>9.375</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" s="16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="E27:E40" si="1">2*PI()*$M$6*C27/$M$4</f>
+        <v>1.125</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G27:G40" si="2">E27/($B27-$B26)</f>
+        <v>11.25</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="H27:H40" si="3">F27/($B27-$B26)</f>
+        <v>11.25</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="I27:I40" si="4">(E27+F27)/2</f>
+        <v>1.125</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J27:J40" si="5">(E27-F27)/$M$5</f>
         <v>0</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" ref="K27:K40" si="6">K26+I27*COS(M27)</f>
+        <v>5.0625</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L27:L40" si="7">L26+I27*SIN(M27)</f>
         <v>5</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M27:M40" si="8">M26+J27</f>
         <v>0</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N27:N40" si="9">M27*360/(2*PI())</f>
         <v>0</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="O27:O40" si="10">K27-K26</f>
+        <v>1.125</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P27:P40" si="11">L27-L26</f>
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="12"/>
-        <v>-9.3749999999999964</v>
+        <f t="shared" ref="Q27:Q40" si="12">((C27-C26)/$M$4*2*PI()*$M$6)/(B27-B26)</f>
+        <v>1.875</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="13"/>
-        <v>-9.3749999999999964</v>
-      </c>
-      <c r="S27" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="R27:R40" si="13">((D27-D26)/$M$4*2*PI()*$M$6)/(B27-B26)</f>
+        <v>1.875</v>
+      </c>
+      <c r="S27" s="30">
+        <f>I27/(B27-B26)</f>
+        <v>11.25</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="17">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="2"/>
-        <v>7.5000000000000018</v>
+        <f>E28/($B28-$B27)</f>
+        <v>9.3750000000000018</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="3"/>
-        <v>-7.5000000000000018</v>
+        <v>9.3750000000000018</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(E28+F28)/2</f>
+        <v>0.9375</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="5"/>
-        <v>0.78539816339744828</v>
+        <v>0</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="6"/>
@@ -4067,15 +3946,15 @@
       </c>
       <c r="M28" s="14">
         <f t="shared" si="8"/>
-        <v>0.78539816339744828</v>
+        <v>0</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="11"/>
@@ -4083,127 +3962,127 @@
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="12"/>
-        <v>7.5000000000000018</v>
+        <v>-1.8750000000000004</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="13"/>
-        <v>-7.5000000000000018</v>
-      </c>
-      <c r="S28" s="36">
+        <v>-1.8750000000000004</v>
+      </c>
+      <c r="S28" s="30">
+        <f t="shared" ref="S28:S40" si="14">I28/(B28-B27)</f>
+        <v>9.3750000000000018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="12"/>
+        <v>-9.3749999999999964</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="13"/>
+        <v>-9.3749999999999964</v>
+      </c>
+      <c r="S29" s="30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45">
-        <v>7</v>
-      </c>
-      <c r="B29" s="46">
-        <v>0.6</v>
-      </c>
-      <c r="C29" s="47">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D30" s="17">
         <v>-4</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E30" s="22">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F30" s="13">
         <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G30" s="5">
         <f t="shared" si="2"/>
         <v>7.5000000000000018</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H30" s="6">
         <f t="shared" si="3"/>
         <v>-7.5000000000000018</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I30" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J30" s="14">
         <f t="shared" si="5"/>
         <v>0.78539816339744828</v>
-      </c>
-      <c r="K29" s="44">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="L29" s="44">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M29" s="44">
-        <f t="shared" si="8"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="N29" s="44">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="O29" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="52">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="53">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="6"/>
@@ -4215,11 +4094,11 @@
       </c>
       <c r="M30" s="14">
         <f t="shared" si="8"/>
-        <v>1.5707963267948966</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O30" s="14">
         <f t="shared" si="10"/>
@@ -4231,135 +4110,135 @@
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="12"/>
-        <v>-7.5000000000000018</v>
+        <v>7.5000000000000018</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="13"/>
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="S30" s="30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39">
+        <v>7</v>
+      </c>
+      <c r="B31" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="C31" s="41">
+        <v>4</v>
+      </c>
+      <c r="D31" s="42">
+        <v>-4</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="44">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="G31" s="45">
+        <f t="shared" si="2"/>
         <v>7.5000000000000018</v>
       </c>
-      <c r="S30" s="36">
+      <c r="H31" s="46">
+        <f t="shared" si="3"/>
+        <v>-7.5000000000000018</v>
+      </c>
+      <c r="I31" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="38">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="K31" s="38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L31" s="38">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="38">
+        <f t="shared" si="8"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="N31" s="38">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="O31" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>9</v>
-      </c>
-      <c r="B31" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="C31" s="7">
-        <v>5</v>
-      </c>
-      <c r="D31" s="17">
-        <v>6</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9375</v>
-      </c>
-      <c r="F31" s="13">
-        <f>2*PI()*$M$4*D31/$M$2</f>
-        <v>1.125</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="2"/>
-        <v>9.3749999999999911</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="3"/>
-        <v>11.249999999999989</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="4"/>
-        <v>1.03125</v>
-      </c>
-      <c r="J31" s="14">
-        <f t="shared" si="5"/>
-        <v>-9.8174770424681035E-2</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="6"/>
-        <v>6.1010801759648592</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0262842493807032</v>
-      </c>
-      <c r="M31" s="14">
-        <f t="shared" si="8"/>
-        <v>1.4726215563702154</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="9"/>
-        <v>84.374999999999986</v>
-      </c>
-      <c r="O31" s="14">
-        <f t="shared" si="10"/>
-        <v>0.10108017596485919</v>
-      </c>
-      <c r="P31" s="14">
-        <f t="shared" si="11"/>
-        <v>1.0262842493807032</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="12"/>
-        <v>9.3749999999999911</v>
-      </c>
-      <c r="R31" s="6">
-        <f t="shared" si="13"/>
-        <v>11.249999999999989</v>
-      </c>
-      <c r="S31" s="36">
-        <f t="shared" si="14"/>
-        <v>10.312499999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="16">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D32" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="1"/>
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>11.250000000000002</v>
+        <v>0</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="3"/>
-        <v>9.3750000000000018</v>
+        <v>0</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="4"/>
-        <v>1.03125</v>
+        <v>0</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="5"/>
-        <v>9.8174770424681035E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>6.1010801759648592</v>
+        <v>6</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="7"/>
-        <v>7.0575342493807032</v>
+        <v>5</v>
       </c>
       <c r="M32" s="14">
         <f t="shared" si="8"/>
@@ -4375,57 +4254,57 @@
       </c>
       <c r="P32" s="14">
         <f t="shared" si="11"/>
-        <v>1.03125</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="12"/>
-        <v>1.8750000000000004</v>
+        <v>-7.5000000000000018</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="13"/>
-        <v>-1.8750000000000004</v>
-      </c>
-      <c r="S32" s="36">
+        <v>7.5000000000000018</v>
+      </c>
+      <c r="S32" s="30">
         <f t="shared" si="14"/>
-        <v>10.312500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C33" s="7">
         <v>5</v>
       </c>
       <c r="D33" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <f>2*PI()*$M$6*D33/$M$4</f>
+        <v>1.125</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>9.3750000000000018</v>
+        <v>9.3749999999999911</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="3"/>
-        <v>9.3750000000000018</v>
+        <v>11.249999999999989</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
+        <v>1.03125</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-9.8174770424681035E-2</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
@@ -4433,201 +4312,201 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" si="7"/>
-        <v>7.9950342493807032</v>
+        <v>6.0262842493807032</v>
       </c>
       <c r="M33" s="14">
         <f t="shared" si="8"/>
-        <v>1.5707963267948966</v>
+        <v>1.4726215563702154</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>84.374999999999986</v>
       </c>
       <c r="O33" s="14">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.10108017596485919</v>
       </c>
       <c r="P33" s="14">
         <f t="shared" si="11"/>
-        <v>0.9375</v>
+        <v>1.0262842493807032</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="12"/>
-        <v>-1.8750000000000004</v>
+        <v>9.3749999999999911</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="36">
+        <v>11.249999999999989</v>
+      </c>
+      <c r="S33" s="30">
         <f t="shared" si="14"/>
-        <v>9.3750000000000018</v>
+        <v>10.312499999999991</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="16">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="22">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>0.9375</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>7.4999999999999938</v>
+        <v>11.250000000000002</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="3"/>
-        <v>11.249999999999989</v>
+        <v>9.3750000000000018</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
+        <v>1.03125</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="5"/>
-        <v>-0.19634954084936207</v>
+        <v>9.8174770424681035E-2</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="6"/>
-        <v>6.2839773528549792</v>
+        <v>6.1010801759648592</v>
       </c>
       <c r="L34" s="15">
         <f t="shared" si="7"/>
-        <v>8.9145204497587311</v>
+        <v>7.0575342493807032</v>
       </c>
       <c r="M34" s="14">
         <f t="shared" si="8"/>
-        <v>1.3744467859455345</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="9"/>
-        <v>78.75</v>
+        <v>90</v>
       </c>
       <c r="O34" s="14">
         <f t="shared" si="10"/>
-        <v>0.18289717689011997</v>
+        <v>0</v>
       </c>
       <c r="P34" s="14">
         <f t="shared" si="11"/>
-        <v>0.91948620037802797</v>
+        <v>1.03125</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="12"/>
-        <v>-1.8749999999999984</v>
+        <v>1.8750000000000004</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="13"/>
-        <v>1.8749999999999984</v>
-      </c>
-      <c r="S34" s="36">
+        <v>-1.8750000000000004</v>
+      </c>
+      <c r="S34" s="30">
         <f t="shared" si="14"/>
-        <v>9.3749999999999911</v>
+        <v>10.312500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.9375</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>0.9375</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="2"/>
-        <v>3.7500000000000049</v>
+        <v>9.3750000000000018</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="3"/>
-        <v>11.250000000000014</v>
+        <v>9.3750000000000018</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="5"/>
-        <v>-0.39269908169872414</v>
+        <v>0</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="6"/>
-        <v>6.700655027619681</v>
+        <v>6.1010801759648592</v>
       </c>
       <c r="L35" s="15">
         <f t="shared" si="7"/>
-        <v>9.5381226589856407</v>
+        <v>7.9950342493807032</v>
       </c>
       <c r="M35" s="14">
         <f t="shared" si="8"/>
-        <v>0.98174770424681035</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="N35" s="15">
         <f t="shared" si="9"/>
-        <v>56.25</v>
+        <v>90</v>
       </c>
       <c r="O35" s="14">
         <f t="shared" si="10"/>
-        <v>0.41667767476470186</v>
+        <v>0</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" si="11"/>
-        <v>0.62360220922690957</v>
+        <v>0.9375</v>
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="12"/>
-        <v>-3.7500000000000049</v>
+        <v>-1.8750000000000004</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S35" s="36">
+      <c r="S35" s="30">
         <f t="shared" si="14"/>
-        <v>7.5000000000000098</v>
+        <v>9.3750000000000018</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="16">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="17">
         <v>6</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
@@ -4635,7 +4514,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="2"/>
-        <v>3.7499999999999969</v>
+        <v>7.4999999999999938</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="3"/>
@@ -4643,61 +4522,61 @@
       </c>
       <c r="I36" s="14">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="5"/>
-        <v>-0.39269908169872414</v>
+        <v>-0.19634954084936207</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="6"/>
-        <v>7.3242572368465897</v>
+        <v>6.2839773528549792</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="7"/>
-        <v>9.9548003337503417</v>
+        <v>8.9145204497587311</v>
       </c>
       <c r="M36" s="14">
         <f t="shared" si="8"/>
-        <v>0.58904862254808621</v>
+        <v>1.3744467859455345</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="9"/>
-        <v>33.75</v>
+        <v>78.75</v>
       </c>
       <c r="O36" s="14">
         <f t="shared" si="10"/>
-        <v>0.62360220922690868</v>
+        <v>0.18289717689011997</v>
       </c>
       <c r="P36" s="14">
         <f t="shared" si="11"/>
-        <v>0.41667767476470097</v>
+        <v>0.91948620037802797</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1.8749999999999984</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="36">
+        <v>1.8749999999999984</v>
+      </c>
+      <c r="S36" s="30">
         <f t="shared" si="14"/>
-        <v>7.4999999999999938</v>
+        <v>9.3749999999999911</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="16">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
       </c>
       <c r="D37" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="1"/>
@@ -4705,7 +4584,7 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="2"/>
@@ -4713,131 +4592,279 @@
       </c>
       <c r="H37" s="6">
         <f t="shared" si="3"/>
-        <v>7.5000000000000098</v>
+        <v>11.250000000000014</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="4"/>
-        <v>0.5625</v>
+        <v>0.75</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="5"/>
-        <v>-0.19634954084936207</v>
+        <v>-0.39269908169872414</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="6"/>
-        <v>7.8439394738841886</v>
+        <v>6.700655027619681</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="7"/>
-        <v>10.170059764455704</v>
+        <v>9.5381226589856407</v>
       </c>
       <c r="M37" s="14">
         <f t="shared" si="8"/>
-        <v>0.39269908169872414</v>
+        <v>0.98174770424681035</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="9"/>
-        <v>22.5</v>
+        <v>56.25</v>
       </c>
       <c r="O37" s="14">
         <f t="shared" si="10"/>
-        <v>0.51968223703759886</v>
+        <v>0.41667767476470186</v>
       </c>
       <c r="P37" s="14">
         <f t="shared" si="11"/>
-        <v>0.21525943070536258</v>
+        <v>0.62360220922690957</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3.7500000000000049</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="30">
+        <f t="shared" si="14"/>
+        <v>7.5000000000000098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17">
+        <v>6</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999969</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="3"/>
+        <v>11.249999999999989</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.39269908169872414</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="6"/>
+        <v>7.3242572368465897</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="7"/>
+        <v>9.9548003337503417</v>
+      </c>
+      <c r="M38" s="14">
+        <f t="shared" si="8"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="9"/>
+        <v>33.75</v>
+      </c>
+      <c r="O38" s="14">
+        <f t="shared" si="10"/>
+        <v>0.62360220922690868</v>
+      </c>
+      <c r="P38" s="14">
+        <f t="shared" si="11"/>
+        <v>0.41667767476470097</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="30">
+        <f t="shared" si="14"/>
+        <v>7.4999999999999938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>15</v>
+      </c>
+      <c r="B39" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="17">
+        <v>4</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="2"/>
+        <v>3.7500000000000049</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5000000000000098</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="5"/>
+        <v>-0.19634954084936207</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="6"/>
+        <v>7.8439394738841886</v>
+      </c>
+      <c r="L39" s="15">
+        <f t="shared" si="7"/>
+        <v>10.170059764455704</v>
+      </c>
+      <c r="M39" s="14">
+        <f t="shared" si="8"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="9"/>
+        <v>22.5</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="10"/>
+        <v>0.51968223703759886</v>
+      </c>
+      <c r="P39" s="14">
+        <f t="shared" si="11"/>
+        <v>0.21525943070536258</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="13"/>
         <v>-3.7500000000000049</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S39" s="30">
         <f t="shared" si="14"/>
         <v>5.6250000000000071</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>16</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B40" s="18">
         <v>1.5</v>
       </c>
-      <c r="C38" s="19">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-      <c r="E38" s="37">
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+      <c r="E40" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F40" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G40" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H40" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I40" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J40" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K40" s="36">
         <f t="shared" si="6"/>
         <v>7.8439394738841886</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L40" s="36">
         <f t="shared" si="7"/>
         <v>10.170059764455704</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M40" s="35">
         <f t="shared" si="8"/>
         <v>0.39269908169872414</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N40" s="36">
         <f t="shared" si="9"/>
         <v>22.5</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O40" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P40" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="39">
+      <c r="Q40" s="33">
         <f t="shared" si="12"/>
         <v>-3.7499999999999969</v>
       </c>
-      <c r="R38" s="40">
+      <c r="R40" s="34">
         <f t="shared" si="13"/>
         <v>-7.4999999999999938</v>
       </c>
-      <c r="S38" s="43">
+      <c r="S40" s="37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:S21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
